--- a/VerveStacks_FIN_grids/ReportDefs_vervestacks.xlsx
+++ b/VerveStacks_FIN_grids/ReportDefs_vervestacks.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE8D2E2-3532-4203-B088-884C639FA604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B8C24-DE1E-41D4-9D22-F5A972B7FF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
     <sheet name="TS_Defs" sheetId="27" r:id="rId2"/>
     <sheet name="TS_ratios" sheetId="68" r:id="rId3"/>
-    <sheet name="PSet_MAP coarse" sheetId="57" r:id="rId4"/>
-    <sheet name="CSET_MAP" sheetId="66" r:id="rId5"/>
-    <sheet name="CName_MAP" sheetId="58" r:id="rId6"/>
-    <sheet name="varbl map" sheetId="64" r:id="rId7"/>
-    <sheet name="process map" sheetId="65" r:id="rId8"/>
-    <sheet name="commodity map" sheetId="67" r:id="rId9"/>
-    <sheet name="ATS" sheetId="63" r:id="rId10"/>
-    <sheet name="UnitConv" sheetId="59" r:id="rId11"/>
+    <sheet name="Sankey" sheetId="69" r:id="rId4"/>
+    <sheet name="PSet_MAP" sheetId="57" r:id="rId5"/>
+    <sheet name="CSET_MAP" sheetId="66" r:id="rId6"/>
+    <sheet name="CName_MAP" sheetId="58" r:id="rId7"/>
+    <sheet name="timeslice map" sheetId="64" r:id="rId8"/>
+    <sheet name="process map" sheetId="65" r:id="rId9"/>
+    <sheet name="commodity map" sheetId="67" r:id="rId10"/>
+    <sheet name="ATS" sheetId="63" r:id="rId11"/>
+    <sheet name="UnitConv" sheetId="59" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="260">
   <si>
     <t>Unit</t>
   </si>
@@ -91,12 +92,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
     <t>Solar</t>
   </si>
   <si>
@@ -250,9 +245,6 @@
     <t>process</t>
   </si>
   <si>
-    <t>~Varbl_map</t>
-  </si>
-  <si>
     <t>dimension</t>
   </si>
   <si>
@@ -382,15 +374,9 @@
     <t>Wind offshore</t>
   </si>
   <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
     <t>Hydro pumped stg</t>
   </si>
   <si>
-    <t>Bioenergy</t>
-  </si>
-  <si>
     <t>Util Batt Stg</t>
   </si>
   <si>
@@ -454,9 +440,6 @@
     <t>-ElcAgg*,-*EV*</t>
   </si>
   <si>
-    <t>ELC,ELC_???-???</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -475,115 +458,409 @@
     <t>old</t>
   </si>
   <si>
-    <t>vstacks_t1~</t>
-  </si>
-  <si>
-    <t>vstacks_t5~</t>
-  </si>
-  <si>
-    <t>vstacks_w2~</t>
-  </si>
-  <si>
     <t>ngfs</t>
   </si>
   <si>
     <t>timeslice</t>
   </si>
   <si>
-    <t>Delayed transition</t>
-  </si>
-  <si>
-    <t>Net Zero 2050</t>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2Captured</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>ktneg</t>
+  </si>
+  <si>
+    <t>CO2_emission</t>
+  </si>
+  <si>
+    <t>CO2_captured</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>Coal CCS</t>
+  </si>
+  <si>
+    <t>Gas CCS</t>
+  </si>
+  <si>
+    <t>Coal CCS Retrofit</t>
+  </si>
+  <si>
+    <t>Gas CCS Retrofit</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>*ccs-rf</t>
+  </si>
+  <si>
+    <t>co2net</t>
+  </si>
+  <si>
+    <t>000$/t</t>
+  </si>
+  <si>
+    <t>Price_CO2</t>
+  </si>
+  <si>
+    <t>$/tCO2</t>
+  </si>
+  <si>
+    <t>ELE,STG,IRE,-Grid</t>
+  </si>
+  <si>
+    <t>s?a*</t>
+  </si>
+  <si>
+    <t>*,-s?a*</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>aggregated</t>
+  </si>
+  <si>
+    <t>ts_type</t>
+  </si>
+  <si>
+    <t>ts_season</t>
+  </si>
+  <si>
+    <t>S1*</t>
+  </si>
+  <si>
+    <t>S2*</t>
+  </si>
+  <si>
+    <t>S3*</t>
+  </si>
+  <si>
+    <t>S4*</t>
+  </si>
+  <si>
+    <t>S5*</t>
+  </si>
+  <si>
+    <t>S6*</t>
+  </si>
+  <si>
+    <t>~Timeslice_Map</t>
+  </si>
+  <si>
+    <t>-ElcAgg*,-*EV*,-g[_]*</t>
+  </si>
+  <si>
+    <t>ELC,ELC_???-???,e[_]*</t>
+  </si>
+  <si>
+    <t>T_neg_andor</t>
+  </si>
+  <si>
+    <t>downscale_option</t>
+  </si>
+  <si>
+    <t>~TS_Defs: Snk_attr=Grid Flows</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>VAR_FIN</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Elec-220V</t>
+  </si>
+  <si>
+    <t>Elec-400V</t>
+  </si>
+  <si>
+    <t>Elec-380V</t>
+  </si>
+  <si>
+    <t>Elec-225V</t>
+  </si>
+  <si>
+    <t>Elec-330V</t>
+  </si>
+  <si>
+    <t>Elec-275V</t>
+  </si>
+  <si>
+    <t>Elec-420V</t>
+  </si>
+  <si>
+    <t>Elec-300V</t>
+  </si>
+  <si>
+    <t>Elec-500V</t>
+  </si>
+  <si>
+    <t>Elec-750V</t>
+  </si>
+  <si>
+    <t>Elec-450V</t>
+  </si>
+  <si>
+    <t>Elec-515V</t>
+  </si>
+  <si>
+    <t>Elec-525V</t>
+  </si>
+  <si>
+    <t>Elec-320V</t>
+  </si>
+  <si>
+    <t>Elec-150V</t>
+  </si>
+  <si>
+    <t>Elec-270V</t>
+  </si>
+  <si>
+    <t>Elec-350V</t>
+  </si>
+  <si>
+    <t>Elec-250V</t>
+  </si>
+  <si>
+    <t>Elec-200V</t>
+  </si>
+  <si>
+    <t>Elec-236V</t>
+  </si>
+  <si>
+    <t>Elec-600V</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_Src_&lt;pset&gt;</t>
+  </si>
+  <si>
+    <t>&lt;cset&gt;_Snk_&lt;pset&gt;</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>Bio Power</t>
+  </si>
+  <si>
+    <t>Solar Util</t>
+  </si>
+  <si>
+    <t>Geothermal P</t>
+  </si>
+  <si>
+    <t>Hydro RoR</t>
+  </si>
+  <si>
+    <t>Nuclear P</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>Solar elec</t>
+  </si>
+  <si>
+    <t>Wind elec</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>Grid-220V</t>
+  </si>
+  <si>
+    <t>Grid-400V</t>
+  </si>
+  <si>
+    <t>Grid-380V</t>
+  </si>
+  <si>
+    <t>Grid-225V</t>
+  </si>
+  <si>
+    <t>Grid-330V</t>
+  </si>
+  <si>
+    <t>Grid-275V</t>
+  </si>
+  <si>
+    <t>Grid-420V</t>
+  </si>
+  <si>
+    <t>Grid-300V</t>
+  </si>
+  <si>
+    <t>Grid-500V</t>
+  </si>
+  <si>
+    <t>Grid-750V</t>
+  </si>
+  <si>
+    <t>Grid-450V</t>
+  </si>
+  <si>
+    <t>Grid-515V</t>
+  </si>
+  <si>
+    <t>Grid-525V</t>
+  </si>
+  <si>
+    <t>Grid-320V</t>
+  </si>
+  <si>
+    <t>Grid-150V</t>
+  </si>
+  <si>
+    <t>Grid-270V</t>
+  </si>
+  <si>
+    <t>Grid-350V</t>
+  </si>
+  <si>
+    <t>Grid-250V</t>
+  </si>
+  <si>
+    <t>Grid-200V</t>
+  </si>
+  <si>
+    <t>Grid-236V</t>
+  </si>
+  <si>
+    <t>Grid-600V</t>
+  </si>
+  <si>
+    <t>Aggregators</t>
+  </si>
+  <si>
+    <t>DUMMY_IMP</t>
+  </si>
+  <si>
+    <t>Transformers Dn</t>
+  </si>
+  <si>
+    <t>Transformers Up</t>
+  </si>
+  <si>
+    <t>Declared NDCs</t>
+  </si>
+  <si>
+    <t>Limited to 2 deg</t>
+  </si>
+  <si>
+    <t>Postponed Transition</t>
+  </si>
+  <si>
+    <t>Target Net Zero 2050</t>
   </si>
   <si>
     <t>Current Policies</t>
   </si>
   <si>
-    <t>Low demand</t>
-  </si>
-  <si>
-    <t>Fragmented World</t>
-  </si>
-  <si>
-    <t>NDCs</t>
-  </si>
-  <si>
-    <t>Below 2deg</t>
-  </si>
-  <si>
-    <t>3 days</t>
-  </si>
-  <si>
-    <t>15 days</t>
-  </si>
-  <si>
-    <t>2 weeks</t>
-  </si>
-  <si>
-    <t>_3d</t>
-  </si>
-  <si>
-    <t>_15d</t>
-  </si>
-  <si>
-    <t>_2w</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CO2Captured</t>
-  </si>
-  <si>
-    <t>kt</t>
-  </si>
-  <si>
-    <t>ktneg</t>
-  </si>
-  <si>
-    <t>CO2_emission</t>
-  </si>
-  <si>
-    <t>CO2_captured</t>
-  </si>
-  <si>
-    <t>mt</t>
-  </si>
-  <si>
-    <t>Coal CCS</t>
-  </si>
-  <si>
-    <t>Gas CCS</t>
-  </si>
-  <si>
-    <t>Coal CCS Retrofit</t>
-  </si>
-  <si>
-    <t>Gas CCS Retrofit</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>co2captured</t>
-  </si>
-  <si>
-    <t>*ccs-rf</t>
-  </si>
-  <si>
-    <t>co2net</t>
-  </si>
-  <si>
-    <t>000$/t</t>
-  </si>
-  <si>
-    <t>Price_CO2</t>
-  </si>
-  <si>
-    <t>$/tCO2</t>
+    <t>s1p1v1_d</t>
+  </si>
+  <si>
+    <t>s3p3v3_d</t>
+  </si>
+  <si>
+    <t>s2_w</t>
+  </si>
+  <si>
+    <t>s2_w_p2_d</t>
+  </si>
+  <si>
+    <t>ts12_clu</t>
+  </si>
+  <si>
+    <t>ts24_clu</t>
+  </si>
+  <si>
+    <t>ts48_clu</t>
+  </si>
+  <si>
+    <t>s5p5v5_d</t>
+  </si>
+  <si>
+    <t>ts_annual</t>
+  </si>
+  <si>
+    <t>ts_12</t>
+  </si>
+  <si>
+    <t>a2w2d</t>
+  </si>
+  <si>
+    <t>d9d</t>
+  </si>
+  <si>
+    <t>b2w</t>
+  </si>
+  <si>
+    <t>c15d</t>
+  </si>
+  <si>
+    <t>e3d</t>
+  </si>
+  <si>
+    <t>fTS48c</t>
+  </si>
+  <si>
+    <t>gTS24c</t>
+  </si>
+  <si>
+    <t>hTS12c</t>
+  </si>
+  <si>
+    <t>iTS12</t>
+  </si>
+  <si>
+    <t>jAnn</t>
   </si>
 </sst>
 </file>
@@ -595,7 +872,7 @@
     <numFmt numFmtId="165" formatCode="#.00"/>
     <numFmt numFmtId="166" formatCode="#."/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +985,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1122,661 +1405,1914 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
+    <row r="1" spans="1:21">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="I2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="str">
-        <f>"sg_"&amp;H2</f>
-        <v>sg_ngfs</v>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
       </c>
       <c r="I5" t="str">
         <f>"sg_"&amp;I2</f>
+        <v>sg_ngfs</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"sg_"&amp;J2</f>
         <v>sg_timeslice</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="str">
-        <f>$A$1&amp;TEXT(N6,"0000")</f>
-        <v>vstacks_t1~0001</v>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <f>G6</f>
-        <v>Delayed transition_3d</v>
-      </c>
-      <c r="G6" t="str">
-        <f>H6&amp;P6</f>
-        <v>Delayed transition_3d</v>
-      </c>
-      <c r="H6" t="s">
-        <v>136</v>
+        <f t="shared" ref="B6:B37" si="0">"vstacks_"&amp;VLOOKUP(A6,$S$6:$T$18,2,FALSE)&amp;"~"&amp;TEXT(O6,"0000")</f>
+        <v>vstacks_s1p1v1_d~0001</v>
+      </c>
+      <c r="C6" t="str">
+        <f>H6</f>
+        <v>Postponed Transition.e3d</v>
+      </c>
+      <c r="H6" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,I6:J6)</f>
+        <v>Postponed Transition.e3d</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N6">
+        <v>237</v>
+      </c>
+      <c r="J6" t="str">
+        <f>Q6</f>
+        <v>e3d</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="str">
-        <f t="shared" ref="A7:A12" si="0">$A$1&amp;TEXT(N7,"0000")</f>
-        <v>vstacks_t1~0002</v>
+      <c r="Q6" t="str">
+        <f>VLOOKUP(A6,$S$6:$U$17,3,FALSE)</f>
+        <v>e3d</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>240</v>
+      </c>
+      <c r="U6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B26" si="1">G7</f>
-        <v>Net Zero 2050_3d</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ref="G7:G26" si="2">H7&amp;P7</f>
-        <v>Net Zero 2050_3d</v>
-      </c>
-      <c r="H7" t="s">
-        <v>137</v>
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0002</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C26" si="1">H7</f>
+        <v>Target Net Zero 2050.e3d</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ref="H7:H55" si="2">_xlfn.TEXTJOIN(".",TRUE,I7:J7)</f>
+        <v>Target Net Zero 2050.e3d</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7">
+        <v>238</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J55" si="3">Q7</f>
+        <v>e3d</v>
+      </c>
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="P7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_t1~0003</v>
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7:Q55" si="4">VLOOKUP(A7,$S$6:$U$17,3,FALSE)</f>
+        <v>e3d</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>241</v>
+      </c>
+      <c r="U7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0003</v>
+      </c>
+      <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>NDCs_3d</v>
-      </c>
-      <c r="G8" t="str">
+        <v>Declared NDCs.e3d</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="2"/>
-        <v>NDCs_3d</v>
-      </c>
-      <c r="H8" t="s">
-        <v>141</v>
+        <v>Declared NDCs.e3d</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
-      </c>
-      <c r="N8">
+        <v>235</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>e3d</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="P8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_t1~0004</v>
+      <c r="Q8" t="str">
+        <f t="shared" si="4"/>
+        <v>e3d</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>242</v>
+      </c>
+      <c r="U8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0004</v>
+      </c>
+      <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>Below 2deg_3d</v>
-      </c>
-      <c r="G9" t="str">
+        <v>Limited to 2 deg.e3d</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="2"/>
-        <v>Below 2deg_3d</v>
-      </c>
-      <c r="H9" t="s">
-        <v>142</v>
+        <v>Limited to 2 deg.e3d</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9">
+        <v>236</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>e3d</v>
+      </c>
+      <c r="O9">
         <v>4</v>
       </c>
-      <c r="P9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_t1~0005</v>
+      <c r="Q9" t="str">
+        <f t="shared" si="4"/>
+        <v>e3d</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>243</v>
+      </c>
+      <c r="U9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0005</v>
+      </c>
+      <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>Current Policies_3d</v>
-      </c>
-      <c r="G10" t="str">
+        <v>Current Policies.e3d</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="2"/>
-        <v>Current Policies_3d</v>
-      </c>
-      <c r="H10" t="s">
-        <v>138</v>
+        <v>Current Policies.e3d</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10">
+        <v>239</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>e3d</v>
+      </c>
+      <c r="O10">
         <v>5</v>
       </c>
-      <c r="P10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_t1~0006</v>
+      <c r="Q10" t="str">
+        <f t="shared" si="4"/>
+        <v>e3d</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>244</v>
+      </c>
+      <c r="U10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <f>A6+1</f>
+        <v>2</v>
       </c>
       <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0001</v>
+      </c>
+      <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>Low demand_3d</v>
-      </c>
-      <c r="G11" t="str">
+        <v>Postponed Transition.d9d</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="2"/>
-        <v>Low demand_3d</v>
-      </c>
-      <c r="H11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11">
+        <v>Postponed Transition.d9d</v>
+      </c>
+      <c r="I11" t="str">
+        <f>I6</f>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O11">
+        <f>O6</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S11">
         <v>6</v>
       </c>
-      <c r="P11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_t1~0007</v>
+      <c r="T11" t="s">
+        <v>245</v>
+      </c>
+      <c r="U11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <f t="shared" ref="A12:A55" si="5">A7+1</f>
+        <v>2</v>
       </c>
       <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0002</v>
+      </c>
+      <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>Fragmented World_3d</v>
-      </c>
-      <c r="G12" t="str">
+        <v>Target Net Zero 2050.d9d</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="2"/>
-        <v>Fragmented World_3d</v>
-      </c>
-      <c r="H12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12">
+        <v>Target Net Zero 2050.d9d</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12:I55" si="6">I7</f>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O55" si="7">O7</f>
+        <v>2</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="P12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="str">
-        <f>$B$1&amp;TEXT(N13,"0000")</f>
-        <v>vstacks_t5~0001</v>
+      <c r="T12" t="s">
+        <v>246</v>
+      </c>
+      <c r="U12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0003</v>
+      </c>
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>Delayed transition_15d</v>
-      </c>
-      <c r="G13" t="str">
+        <v>Declared NDCs.d9d</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="2"/>
-        <v>Delayed transition_15d</v>
-      </c>
-      <c r="H13" t="str">
-        <f>H6</f>
-        <v>Delayed transition</v>
-      </c>
-      <c r="I13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13">
-        <f>N6</f>
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="str">
-        <f t="shared" ref="A14:A19" si="3">$B$1&amp;TEXT(N14,"0000")</f>
-        <v>vstacks_t5~0002</v>
+        <v>Declared NDCs.d9d</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>247</v>
+      </c>
+      <c r="U13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0004</v>
+      </c>
+      <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>Net Zero 2050_15d</v>
-      </c>
-      <c r="G14" t="str">
+        <v>Limited to 2 deg.d9d</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
-        <v>Net Zero 2050_15d</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" ref="H14:H26" si="4">H7</f>
-        <v>Net Zero 2050</v>
-      </c>
-      <c r="I14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N26" si="5">N7</f>
+        <v>Limited to 2 deg.d9d</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>249</v>
+      </c>
+      <c r="U14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="str">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0005</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Current Policies.d9d</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.d9d</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>vstacks_t5~0003</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>NDCs_15d</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>NDCs_15d</v>
-      </c>
-      <c r="H15" t="str">
+        <v>d9d</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" si="4"/>
-        <v>NDCs</v>
-      </c>
-      <c r="I15" t="s">
-        <v>144</v>
-      </c>
-      <c r="N15">
+        <v>d9d</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>248</v>
+      </c>
+      <c r="U15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="P15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="str">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0001</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Postponed Transition.b2w</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>Postponed Transition.b2w</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>vstacks_t5~0004</v>
-      </c>
-      <c r="B16" t="str">
+        <v>b2w</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0002</v>
+      </c>
+      <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>Below 2deg_15d</v>
-      </c>
-      <c r="G16" t="str">
+        <v>Target Net Zero 2050.b2w</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="2"/>
-        <v>Below 2deg_15d</v>
-      </c>
-      <c r="H16" t="str">
+        <v>Target Net Zero 2050.b2w</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" si="4"/>
-        <v>Below 2deg</v>
-      </c>
-      <c r="I16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16">
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0003</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Declared NDCs.b2w</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.b2w</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0004</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Limited to 2 deg.b2w</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.b2w</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0005</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Current Policies.b2w</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.b2w</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="P16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="str">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0001</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Postponed Transition.a2w2d</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>Postponed Transition.a2w2d</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>vstacks_t5~0005</v>
-      </c>
-      <c r="B17" t="str">
+        <v>a2w2d</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0002</v>
+      </c>
+      <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>Current Policies_15d</v>
-      </c>
-      <c r="G17" t="str">
+        <v>Target Net Zero 2050.a2w2d</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" si="2"/>
-        <v>Current Policies_15d</v>
-      </c>
-      <c r="H17" t="str">
+        <v>Target Net Zero 2050.a2w2d</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0003</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Declared NDCs.a2w2d</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.a2w2d</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0004</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Limited to 2 deg.a2w2d</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.a2w2d</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0005</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Current Policies.a2w2d</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.a2w2d</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="6"/>
         <v>Current Policies</v>
       </c>
-      <c r="I17" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17">
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="str">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0001</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Postponed Transition.hTS12c</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>Postponed Transition.hTS12c</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>vstacks_t5~0006</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>Low demand_15d</v>
-      </c>
-      <c r="G18" t="str">
+        <v>hTS12c</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0002</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C40" si="8">H27</f>
+        <v>Target Net Zero 2050.hTS12c</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="2"/>
-        <v>Low demand_15d</v>
-      </c>
-      <c r="H18" t="str">
+        <v>Target Net Zero 2050.hTS12c</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q27" t="str">
         <f t="shared" si="4"/>
-        <v>Low demand</v>
-      </c>
-      <c r="I18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18">
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0003</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="8"/>
+        <v>Declared NDCs.hTS12c</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.hTS12c</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0004</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="8"/>
+        <v>Limited to 2 deg.hTS12c</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.hTS12c</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0005</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="8"/>
+        <v>Current Policies.hTS12c</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.hTS12c</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="P18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="str">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0001</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="8"/>
+        <v>Postponed Transition.gTS24c</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>Postponed Transition.gTS24c</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="3"/>
-        <v>vstacks_t5~0007</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>Fragmented World_15d</v>
-      </c>
-      <c r="G19" t="str">
+        <v>gTS24c</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0002</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="8"/>
+        <v>Target Net Zero 2050.gTS24c</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="2"/>
-        <v>Fragmented World_15d</v>
-      </c>
-      <c r="H19" t="str">
+        <v>Target Net Zero 2050.gTS24c</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q32" t="str">
         <f t="shared" si="4"/>
-        <v>Fragmented World</v>
-      </c>
-      <c r="I19" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19">
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0003</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="8"/>
+        <v>Declared NDCs.gTS24c</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.gTS24c</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0004</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="8"/>
+        <v>Limited to 2 deg.gTS24c</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.gTS24c</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0005</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="8"/>
+        <v>Current Policies.gTS24c</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.gTS24c</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="str">
-        <f>$C$1&amp;TEXT(N20,"0000")</f>
-        <v>vstacks_w2~0001</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>Delayed transition_2w</v>
-      </c>
-      <c r="G20" t="str">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts48_clu~0001</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="8"/>
+        <v>Postponed Transition.fTS48c</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="2"/>
-        <v>Delayed transition_2w</v>
-      </c>
-      <c r="H20" t="str">
+        <v>Postponed Transition.fTS48c</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" si="4"/>
-        <v>Delayed transition</v>
-      </c>
-      <c r="I20" t="s">
-        <v>145</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="str">
-        <f t="shared" ref="A21:A26" si="6">$C$1&amp;TEXT(N21,"0000")</f>
-        <v>vstacks_w2~0002</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>Net Zero 2050_2w</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>Net Zero 2050_2w</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="4"/>
-        <v>Net Zero 2050</v>
-      </c>
-      <c r="I21" t="s">
-        <v>145</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="str">
-        <f t="shared" si="6"/>
-        <v>vstacks_w2~0003</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>NDCs_2w</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>NDCs_2w</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="4"/>
-        <v>NDCs</v>
-      </c>
-      <c r="I22" t="s">
-        <v>145</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="P22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="str">
-        <f t="shared" si="6"/>
-        <v>vstacks_w2~0004</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>Below 2deg_2w</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>Below 2deg_2w</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="4"/>
-        <v>Below 2deg</v>
-      </c>
-      <c r="I23" t="s">
-        <v>145</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="P23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="str">
-        <f t="shared" si="6"/>
-        <v>vstacks_w2~0005</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v>Current Policies_2w</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies_2w</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="4"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="I24" t="s">
-        <v>145</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="P24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="str">
-        <f t="shared" si="6"/>
-        <v>vstacks_w2~0006</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>Low demand_2w</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>Low demand_2w</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="4"/>
-        <v>Low demand</v>
-      </c>
-      <c r="I25" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="P25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="str">
-        <f t="shared" si="6"/>
-        <v>vstacks_w2~0007</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="1"/>
-        <v>Fragmented World_2w</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>Fragmented World_2w</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="4"/>
-        <v>Fragmented World</v>
-      </c>
-      <c r="I26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N26">
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="P26" t="s">
-        <v>148</v>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts48_clu~0002</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="8"/>
+        <v>Target Net Zero 2050.fTS48c</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>Target Net Zero 2050.fTS48c</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" ref="B38:B69" si="9">"vstacks_"&amp;VLOOKUP(A38,$S$6:$T$18,2,FALSE)&amp;"~"&amp;TEXT(O38,"0000")</f>
+        <v>vstacks_ts48_clu~0003</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="8"/>
+        <v>Declared NDCs.fTS48c</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.fTS48c</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts48_clu~0004</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="8"/>
+        <v>Limited to 2 deg.fTS48c</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.fTS48c</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts48_clu~0005</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="8"/>
+        <v>Current Policies.fTS48c</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.fTS48c</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0001</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ref="C41:C55" si="10">H41</f>
+        <v>Postponed Transition.c15d</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>Postponed Transition.c15d</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0002</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="10"/>
+        <v>Target Net Zero 2050.c15d</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>Target Net Zero 2050.c15d</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0003</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="10"/>
+        <v>Declared NDCs.c15d</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.c15d</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0004</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="10"/>
+        <v>Limited to 2 deg.c15d</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.c15d</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0005</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="10"/>
+        <v>Current Policies.c15d</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.c15d</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0001</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="10"/>
+        <v>Postponed Transition.iTS12</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>Postponed Transition.iTS12</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0002</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="10"/>
+        <v>Target Net Zero 2050.iTS12</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>Target Net Zero 2050.iTS12</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0003</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="10"/>
+        <v>Declared NDCs.iTS12</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.iTS12</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0004</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="10"/>
+        <v>Limited to 2 deg.iTS12</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.iTS12</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0005</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="10"/>
+        <v>Current Policies.iTS12</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.iTS12</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0001</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="10"/>
+        <v>Postponed Transition.jAnn</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>Postponed Transition.jAnn</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="6"/>
+        <v>Postponed Transition</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0002</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="10"/>
+        <v>Target Net Zero 2050.jAnn</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>Target Net Zero 2050.jAnn</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="6"/>
+        <v>Target Net Zero 2050</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0003</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="10"/>
+        <v>Declared NDCs.jAnn</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>Declared NDCs.jAnn</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="6"/>
+        <v>Declared NDCs</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0004</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="10"/>
+        <v>Limited to 2 deg.jAnn</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>Limited to 2 deg.jAnn</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="6"/>
+        <v>Limited to 2 deg</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0005</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="10"/>
+        <v>Current Policies.jAnn</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>Current Policies.jAnn</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="6"/>
+        <v>Current Policies</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D59:D68">
+    <sortCondition ref="D59:D68"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3245E1-8745-41DD-8AE6-2F4FA19D9F1C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G3"/>
@@ -1790,30 +3326,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1824,12 +3360,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1848,32 +3384,32 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <f>1/8.76</f>
@@ -1882,13 +3418,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <f>1/8.76*100</f>
@@ -1897,13 +3433,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -1911,13 +3447,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <v>-1E-3</v>
@@ -1925,13 +3461,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>-1000</v>
@@ -1949,7 +3485,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -1965,11 +3501,11 @@
     <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.265625" customWidth="1"/>
-    <col min="17" max="17" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.53125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.1328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.86328125" bestFit="1" customWidth="1"/>
@@ -1980,48 +3516,48 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>2</v>
@@ -2030,222 +3566,226 @@
         <v>1</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>146</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="H6" t="s">
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" t="s">
         <v>48</v>
-      </c>
-      <c r="P10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
         <v>51</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2280,15 +3820,15 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="C1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="3:11">
       <c r="C2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -2297,42 +3837,42 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:11">
       <c r="C3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2343,35 +3883,584 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D44EBE-400A-4EA2-9DA1-076783A77DFC}">
+  <dimension ref="A3:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickTop="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,PSet_MAP!$A$3:$A$49)</f>
+        <v>CCGT,Int Comb,Gas_Oil Steam,OCGT (Peaker),Subcritical Coal,Supercritical Coal,IGCC,Bio Power,Solar Util,Wind onshore,Wind offshore,Geothermal P,Hydro Dam,Hydro RoR,Nuclear P,Nuclear SMR,Hydro pumped stg,Util Batt Stg,EV Batt,Demand,Transformers Dn,Transformers Up,Grid-220V,Grid-400V,Grid-380V,Grid-225V,Grid-330V,Grid-275V,Grid-420V,Grid-300V,Grid-500V,Grid-750V,Grid-450V,Grid-515V,Grid-525V,Grid-320V,Grid-150V,Grid-270V,Grid-350V,Grid-250V,Grid-200V,Grid-236V,Grid-600V,Aggregators,DUMMY_IMP</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,CSET_MAP!$A$3:$A$43)</f>
+        <v>Elec-220V,Elec-400V,Elec-380V,Elec-225V,Elec-330V,Elec-275V,Elec-420V,Elec-300V,Elec-500V,Elec-750V,Elec-450V,Elec-515V,Elec-525V,Elec-320V,Elec-150V,Elec-270V,Elec-350V,Elec-250V,Elec-200V,Elec-236V,Elec-600V,Solar elec,Wind elec,fossil,renewable,bioenergy,hydrogen,nuclear,ELC,buildings,industry,transport,EVs</v>
+      </c>
+      <c r="J5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" t="s">
+        <v>197</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,PSet_MAP!$A$3:$A$49)</f>
+        <v>CCGT,Int Comb,Gas_Oil Steam,OCGT (Peaker),Subcritical Coal,Supercritical Coal,IGCC,Bio Power,Solar Util,Wind onshore,Wind offshore,Geothermal P,Hydro Dam,Hydro RoR,Nuclear P,Nuclear SMR,Hydro pumped stg,Util Batt Stg,EV Batt,Demand,Transformers Dn,Transformers Up,Grid-220V,Grid-400V,Grid-380V,Grid-225V,Grid-330V,Grid-275V,Grid-420V,Grid-300V,Grid-500V,Grid-750V,Grid-450V,Grid-515V,Grid-525V,Grid-320V,Grid-150V,Grid-270V,Grid-350V,Grid-250V,Grid-200V,Grid-236V,Grid-600V,Aggregators,DUMMY_IMP</v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,CSET_MAP!$A$3:$A$43)</f>
+        <v>Elec-220V,Elec-400V,Elec-380V,Elec-225V,Elec-330V,Elec-275V,Elec-420V,Elec-300V,Elec-500V,Elec-750V,Elec-450V,Elec-515V,Elec-525V,Elec-320V,Elec-150V,Elec-270V,Elec-350V,Elec-250V,Elec-200V,Elec-236V,Elec-600V,Solar elec,Wind elec,fossil,renewable,bioenergy,hydrogen,nuclear,ELC,buildings,industry,transport,EVs</v>
+      </c>
+      <c r="J6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="str">
+        <f>A3</f>
+        <v>CCGT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B47" si="0">A4</f>
+        <v>Int Comb</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Gas_Oil Steam</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>OCGT (Peaker)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Subcritical Coal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Supercritical Coal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>IGCC</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bio Power</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Solar Util</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wind onshore</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Wind offshore</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Geothermal P</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Hydro Dam</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Hydro RoR</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Nuclear P</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nuclear SMR</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Hydro pumped stg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Util Batt Stg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>EV Batt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Demand</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformers Dn</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformers Up</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-220V</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-400V</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-380V</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-225V</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-330V</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-275V</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-420V</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-300V</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-500V</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-750V</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-450V</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-515V</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-525V</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-320V</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-150V</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-270V</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-350V</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-250V</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-200V</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-236V</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-600V</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Aggregators</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>DUMMY_IMP</v>
       </c>
     </row>
   </sheetData>
@@ -2380,12 +4469,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E766D8-7F73-4A5A-98A5-9C85D527817F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2395,18 +4484,315 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="str">
+        <f>A3</f>
+        <v>Elec-220V</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B35" si="0">A4</f>
+        <v>Elec-400V</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-380V</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-225V</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-330V</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-275V</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-420V</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-300V</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-500V</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-750V</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-450V</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-515V</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-525V</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-320V</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-150V</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-270V</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-350V</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-250V</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-200V</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-236V</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-600V</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Solar elec</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Wind elec</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>fossil</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>renewable</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>bioenergy</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>hydrogen</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>nuclear</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>ELC</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>buildings</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>industry</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>transport</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>EVs</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +4800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2"/>
@@ -2434,18 +4820,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2454,34 +4840,130 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32957E82-8232-40A9-A839-CC5F79005B92}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LEFT(B5,2)</f>
+        <v>S1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C10" si="0">LEFT(B6,2)</f>
+        <v>S2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>S3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>S4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>S5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>S6</v>
       </c>
     </row>
   </sheetData>
@@ -2489,12 +4971,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2509,411 +4991,681 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="str">
-        <f>D3</f>
-        <v>CCGT</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C20" si="0">D4</f>
-        <v>Int Comb</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Gas_Oil Steam</v>
+        <f>D5</f>
+        <v>CCGT</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Nuclear</v>
+        <f t="shared" ref="C6:C49" si="0">D6</f>
+        <v>Int Comb</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>OCGT (Peaker)</v>
+        <v>Gas_Oil Steam</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>Subcritical Coal</v>
+        <v>OCGT (Peaker)</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>Supercritical Coal</v>
+        <v>Subcritical Coal</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>IGCC</v>
+        <v>Supercritical Coal</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>Bioenergy</v>
+        <v>IGCC</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>Solar</v>
+        <v>Bio Power</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>Wind onshore</v>
+        <v>Solar Util</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>Wind offshore</v>
+        <v>Wind onshore</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>Geothermal</v>
+        <v>Wind offshore</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>Hydro</v>
+        <v>Geothermal P</v>
       </c>
       <c r="D16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Hydro Dam</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Hydro RoR</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Nuclear P</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nuclear SMR</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Hydro pumped stg</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Util Batt Stg</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>EV Batt</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Demand</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformers Dn</v>
+      </c>
+      <c r="D25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Transformers Up</v>
+      </c>
+      <c r="D26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-220V</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-400V</v>
+      </c>
+      <c r="D28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-380V</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-225V</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-330V</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-275V</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-420V</v>
+      </c>
+      <c r="D33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-300V</v>
+      </c>
+      <c r="D34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-500V</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-750V</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-450V</v>
+      </c>
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-515V</v>
+      </c>
+      <c r="D38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-525V</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-320V</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-150V</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-270V</v>
+      </c>
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-350V</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-250V</v>
+      </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-200V</v>
+      </c>
+      <c r="D45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-236V</v>
+      </c>
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Grid-600V</v>
+      </c>
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Aggregators</v>
+      </c>
+      <c r="D48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>DUMMY_IMP</v>
+      </c>
+      <c r="D49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>Nuclear</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Hydro pumped stg</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>Util Batt Stg</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>EV Batt</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3245E1-8745-41DD-8AE6-2F4FA19D9F1C}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_FIN_grids/ReportDefs_vervestacks.xlsx
+++ b/VerveStacks_FIN_grids/ReportDefs_vervestacks.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0948E6-2D1E-4684-8AD3-9E401B771AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1AF598-3FA0-459B-9F51-4A4918F64833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="geolocation" sheetId="71" r:id="rId1"/>
-    <sheet name="process_map_geo" sheetId="70" r:id="rId2"/>
-    <sheet name="ScenMap" sheetId="56" r:id="rId3"/>
+    <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
+    <sheet name="geolocation" sheetId="71" r:id="rId2"/>
+    <sheet name="process_map_geo" sheetId="70" r:id="rId3"/>
     <sheet name="TS_Defs" sheetId="27" r:id="rId4"/>
     <sheet name="TS_ratios" sheetId="68" r:id="rId5"/>
     <sheet name="Sankey" sheetId="69" r:id="rId6"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="373">
   <si>
     <t>Unit</t>
   </si>
@@ -460,9 +460,6 @@
     <t>old</t>
   </si>
   <si>
-    <t>ngfs</t>
-  </si>
-  <si>
     <t>timeslice</t>
   </si>
   <si>
@@ -568,9 +565,6 @@
     <t>-ElcAgg*,-*EV*,-g[_]*</t>
   </si>
   <si>
-    <t>ELC,ELC_???-???,e[_]*</t>
-  </si>
-  <si>
     <t>T_neg_andor</t>
   </si>
   <si>
@@ -790,21 +784,6 @@
     <t>Transformers Up</t>
   </si>
   <si>
-    <t>Declared NDCs</t>
-  </si>
-  <si>
-    <t>Limited to 2 deg</t>
-  </si>
-  <si>
-    <t>Postponed Transition</t>
-  </si>
-  <si>
-    <t>Target Net Zero 2050</t>
-  </si>
-  <si>
-    <t>Current Policies</t>
-  </si>
-  <si>
     <t>s1p1v1_d</t>
   </si>
   <si>
@@ -863,6 +842,42 @@
   </si>
   <si>
     <t>jAnn</t>
+  </si>
+  <si>
+    <t>Limit warming to 1.5°C (&gt;50%) with no or limited overshoot</t>
+  </si>
+  <si>
+    <t>Limit warming to 1.5°C (&gt;67%) with high overshoot</t>
+  </si>
+  <si>
+    <t>Limit warming to 2°C (&gt;67%) with higher action post-2030</t>
+  </si>
+  <si>
+    <t>Limit warming to 2°C (&gt;50%) with immediate action</t>
+  </si>
+  <si>
+    <t>Likely above 3°C warming with limited mitigation</t>
+  </si>
+  <si>
+    <t>b 2 deg (50%)</t>
+  </si>
+  <si>
+    <t>c 2 deg (67%)</t>
+  </si>
+  <si>
+    <t>d 1.5 deg OS</t>
+  </si>
+  <si>
+    <t>e 1.5 deg no OS</t>
+  </si>
+  <si>
+    <t>a 3 deg</t>
+  </si>
+  <si>
+    <t>ar6_r10</t>
+  </si>
+  <si>
+    <t>ELC,ELC_???-???*,e[_]*</t>
   </si>
   <si>
     <t>grid_node</t>
@@ -1551,7 +1566,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDA4022-CD3E-5F53-851B-8212822BA7D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E002825D-2D8C-6617-24DB-EB1800901B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1621,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4790B029-8474-FDC6-11D0-BB1FA82ED717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDF39A8-9F00-7133-4EDB-7245206A93B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,1173 +1942,1873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC0289F-6D6D-4582-90DA-B20233F6C68C}">
-  <dimension ref="A1:H112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1">
-      <c r="B9" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B10" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="15" t="s">
+    <row r="1" spans="1:21">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="I2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="str">
+        <f>"sg_"&amp;I2</f>
+        <v>sg_ar6_r10</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"sg_"&amp;J2</f>
+        <v>sg_timeslice</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B37" si="0">"vstacks_"&amp;VLOOKUP(A6,$S$6:$T$18,2,FALSE)&amp;"~"&amp;TEXT(O6,"0000")</f>
+        <v>vstacks_s1p1v1_d~0001</v>
+      </c>
+      <c r="C6" t="str">
+        <f>H6</f>
+        <v>e 1.5 deg no OS.e3d</v>
+      </c>
+      <c r="H6" t="str">
+        <f>_xlfn.TEXTJOIN(".",TRUE,I6:J6)</f>
+        <v>e 1.5 deg no OS.e3d</v>
+      </c>
+      <c r="I6" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="16">
-        <v>69.843525998101626</v>
-      </c>
-      <c r="D11" s="16">
-        <v>27.227319700000024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="17" t="s">
+      <c r="J6" t="str">
+        <f>Q6</f>
+        <v>e3d</v>
+      </c>
+      <c r="L6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>VLOOKUP(A6,$S$6:$U$17,3,FALSE)</f>
+        <v>e3d</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>233</v>
+      </c>
+      <c r="U6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0002</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C26" si="1">H7</f>
+        <v>d 1.5 deg OS.e3d</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ref="H7:H55" si="2">_xlfn.TEXTJOIN(".",TRUE,I7:J7)</f>
+        <v>d 1.5 deg OS.e3d</v>
+      </c>
+      <c r="I7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J55" si="3">Q7</f>
+        <v>e3d</v>
+      </c>
+      <c r="L7" t="s">
+        <v>254</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7:Q55" si="4">VLOOKUP(A7,$S$6:$U$17,3,FALSE)</f>
+        <v>e3d</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0003</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>c 2 deg (67%).e3d</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).e3d</v>
+      </c>
+      <c r="I8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>e3d</v>
+      </c>
+      <c r="L8" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="4"/>
+        <v>e3d</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>235</v>
+      </c>
+      <c r="U8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0004</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>b 2 deg (50%).e3d</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).e3d</v>
+      </c>
+      <c r="I9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>e3d</v>
+      </c>
+      <c r="L9" t="s">
+        <v>256</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="4"/>
+        <v>e3d</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>236</v>
+      </c>
+      <c r="U9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s1p1v1_d~0005</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>a 3 deg.e3d</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.e3d</v>
+      </c>
+      <c r="I10" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="18">
-        <v>61.488324197216357</v>
-      </c>
-      <c r="D12" s="18">
-        <v>22.012815000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="16">
-        <v>61.465563317255167</v>
-      </c>
-      <c r="D13" s="16">
-        <v>23.979322317709929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="18">
-        <v>61.44566639721009</v>
-      </c>
-      <c r="D14" s="18">
-        <v>23.946865200000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="16">
-        <v>61.421424897206641</v>
-      </c>
-      <c r="D15" s="16">
-        <v>23.499009699999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="18">
-        <v>61.408480197204696</v>
-      </c>
-      <c r="D16" s="18">
-        <v>23.515730900000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="16">
-        <v>61.404991497204207</v>
-      </c>
-      <c r="D17" s="16">
-        <v>23.760543300000009</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" s="18">
-        <v>61.398400497203255</v>
-      </c>
-      <c r="D18" s="18">
-        <v>23.799347900000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="16">
-        <v>61.392785371072421</v>
-      </c>
-      <c r="D19" s="16">
-        <v>23.582689859477441</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="18">
-        <v>61.20708349717497</v>
-      </c>
-      <c r="D20" s="18">
-        <v>21.585538499999998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" s="16">
-        <v>61.189199874706375</v>
-      </c>
-      <c r="D21" s="16">
-        <v>21.656427549366459</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="18">
-        <v>66.404690497789176</v>
-      </c>
-      <c r="D22" s="18">
-        <v>27.324774799999982</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="16">
-        <v>61.171830097808417</v>
-      </c>
-      <c r="D23" s="16">
-        <v>22.252441726174322</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C24" s="18">
-        <v>61.159111792914274</v>
-      </c>
-      <c r="D24" s="18">
-        <v>22.444272478526621</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="16">
-        <v>61.157575156992337</v>
-      </c>
-      <c r="D25" s="16">
-        <v>21.752837468316919</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C26" s="18">
-        <v>60.774230997108788</v>
-      </c>
-      <c r="D26" s="18">
-        <v>24.244614500000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="16">
-        <v>60.762294797106833</v>
-      </c>
-      <c r="D27" s="16">
-        <v>24.660069899999979</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="18">
-        <v>60.756470197105941</v>
-      </c>
-      <c r="D28" s="18">
-        <v>24.73821199999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" s="16">
-        <v>60.754338001297938</v>
-      </c>
-      <c r="D29" s="16">
-        <v>24.995489714536639</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="18">
-        <v>60.749346697104862</v>
-      </c>
-      <c r="D30" s="18">
-        <v>24.855618599999968</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="16">
-        <v>66.269614497776089</v>
-      </c>
-      <c r="D31" s="16">
-        <v>25.388823100000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="18">
-        <v>60.609230075670197</v>
-      </c>
-      <c r="D32" s="18">
-        <v>24.905908145454468</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C33" s="16">
-        <v>60.473892075007988</v>
-      </c>
-      <c r="D33" s="16">
-        <v>25.976783900340749</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="18">
-        <v>60.433745089494508</v>
-      </c>
-      <c r="D34" s="18">
-        <v>25.724083948158089</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C35" s="16">
-        <v>60.432084238999913</v>
-      </c>
-      <c r="D35" s="16">
-        <v>25.788083895390887</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C36" s="18">
-        <v>60.431311797054015</v>
-      </c>
-      <c r="D36" s="18">
-        <v>25.6122294</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C37" s="16">
-        <v>60.429052597053534</v>
-      </c>
-      <c r="D37" s="16">
-        <v>25.584932899999984</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" s="18">
-        <v>60.237502523412218</v>
-      </c>
-      <c r="D38" s="18">
-        <v>24.691393737439721</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" s="16">
-        <v>60.218214052079297</v>
-      </c>
-      <c r="D39" s="16">
-        <v>24.637755027682807</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C40" s="18">
-        <v>60.166297497010255</v>
-      </c>
-      <c r="D40" s="18">
-        <v>24.272542600000008</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C41" s="16">
-        <v>64.944338697641811</v>
-      </c>
-      <c r="D41" s="16">
-        <v>25.743433100000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" s="18">
-        <v>64.85428834769867</v>
-      </c>
-      <c r="D42" s="18">
-        <v>26.012085199502568</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C43" s="16">
-        <v>64.579610097749793</v>
-      </c>
-      <c r="D43" s="16">
-        <v>26.707926350120164</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C44" s="18">
-        <v>64.117301047673806</v>
-      </c>
-      <c r="D44" s="18">
-        <v>25.46442159953067</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" s="16">
-        <v>62.28469969732712</v>
-      </c>
-      <c r="D45" s="16">
-        <v>21.429690900000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C46" s="18">
-        <v>62.255167814464272</v>
-      </c>
-      <c r="D46" s="18">
-        <v>21.33869051214505</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="16">
-        <v>64.591152966695688</v>
-      </c>
-      <c r="D47" s="16">
-        <v>28.415009033256279</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C48" s="18">
-        <v>63.806616759966992</v>
-      </c>
-      <c r="D48" s="18">
-        <v>25.295408065265249</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="16">
-        <v>62.482253770582481</v>
-      </c>
-      <c r="D49" s="16">
-        <v>21.651570322482726</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C50" s="18">
-        <v>66.749987985712451</v>
-      </c>
-      <c r="D50" s="18">
-        <v>27.287359401110027</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="16">
-        <v>62.785772387497943</v>
-      </c>
-      <c r="D51" s="16">
-        <v>22.713906519685811</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C52" s="18">
-        <v>60.203747714738398</v>
-      </c>
-      <c r="D52" s="18">
-        <v>24.551645073611169</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C53" s="16">
-        <v>61.152109048186283</v>
-      </c>
-      <c r="D53" s="16">
-        <v>21.626137663639849</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54" s="18">
-        <v>63.187457597668661</v>
-      </c>
-      <c r="D54" s="18">
-        <v>27.520665591725081</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C55" s="16">
-        <v>62.117609809187563</v>
-      </c>
-      <c r="D55" s="16">
-        <v>21.670493933529031</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C56" s="18">
-        <v>64.422222443925165</v>
-      </c>
-      <c r="D56" s="18">
-        <v>24.561833224065435</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" s="16">
-        <v>63.519662704443597</v>
-      </c>
-      <c r="D57" s="16">
-        <v>24.515231021256493</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C58" s="18">
-        <v>63.032100943884593</v>
-      </c>
-      <c r="D58" s="18">
-        <v>24.169991721779478</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C59" s="16">
-        <v>63.972589823678064</v>
-      </c>
-      <c r="D59" s="16">
-        <v>24.875245620666298</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C60" s="18">
-        <v>60.598904579127549</v>
-      </c>
-      <c r="D60" s="18">
-        <v>26.906494831404384</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C61" s="16">
-        <v>64.843785823322065</v>
-      </c>
-      <c r="D61" s="16">
-        <v>26.071330290894803</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C62" s="18">
-        <v>64.844955298397394</v>
-      </c>
-      <c r="D62" s="18">
-        <v>26.035474759522693</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C63" s="16">
-        <v>64.917009452801494</v>
-      </c>
-      <c r="D63" s="16">
-        <v>25.73688586317235</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C64" s="18">
-        <v>63.052766840597883</v>
-      </c>
-      <c r="D64" s="18">
-        <v>21.851244512583811</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C65" s="16">
-        <v>64.120961402535016</v>
-      </c>
-      <c r="D65" s="16">
-        <v>25.415373262271785</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C66" s="18">
-        <v>60.523445255301482</v>
-      </c>
-      <c r="D66" s="18">
-        <v>22.499572287108272</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" s="16">
-        <v>60.493836509212372</v>
-      </c>
-      <c r="D67" s="16">
-        <v>24.944393682067449</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C68" s="18">
-        <v>62.279409088240108</v>
-      </c>
-      <c r="D68" s="18">
-        <v>25.143755818611847</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C69" s="16">
-        <v>65.928162840799871</v>
-      </c>
-      <c r="D69" s="16">
-        <v>24.71312627886784</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C70" s="18">
-        <v>61.89269924055553</v>
-      </c>
-      <c r="D70" s="18">
-        <v>25.127938450149252</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C71" s="16">
-        <v>64.105380759118887</v>
-      </c>
-      <c r="D71" s="16">
-        <v>27.21250396173205</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C72" s="18">
-        <v>65.771848585608694</v>
-      </c>
-      <c r="D72" s="18">
-        <v>24.163152683613475</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C73" s="16">
-        <v>60.274101172418348</v>
-      </c>
-      <c r="D73" s="16">
-        <v>24.275411199229161</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" s="18">
-        <v>61.150985477315963</v>
-      </c>
-      <c r="D74" s="18">
-        <v>22.585877594749888</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="16">
-        <v>60.377636227284512</v>
-      </c>
-      <c r="D75" s="16">
-        <v>25.367309680105411</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C76" s="18">
-        <v>60.205036905524295</v>
-      </c>
-      <c r="D76" s="18">
-        <v>24.550466328157121</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C77" s="16">
-        <v>66.269024003294803</v>
-      </c>
-      <c r="D77" s="16">
-        <v>25.346795336270134</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C78" s="18">
-        <v>60.260171552023849</v>
-      </c>
-      <c r="D78" s="18">
-        <v>25.119806778055288</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C79" s="16">
-        <v>67.527873758547642</v>
-      </c>
-      <c r="D79" s="16">
-        <v>24.917814052232885</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C80" s="18">
-        <v>61.496644806911767</v>
-      </c>
-      <c r="D80" s="18">
-        <v>23.976544020319459</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C81" s="16">
-        <v>60.021295632317148</v>
-      </c>
-      <c r="D81" s="16">
-        <v>23.90859971749779</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C82" s="18">
-        <v>61.728994167158113</v>
-      </c>
-      <c r="D82" s="18">
-        <v>27.36608653991372</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C83" s="16">
-        <v>62.292711199264261</v>
-      </c>
-      <c r="D83" s="16">
-        <v>21.375880124834342</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="C84" s="18">
-        <v>60.838283473246257</v>
-      </c>
-      <c r="D84" s="18">
-        <v>26.595449017407411</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C85" s="16">
-        <v>68.65549408483291</v>
-      </c>
-      <c r="D85" s="16">
-        <v>27.583003398581042</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C86" s="18">
-        <v>66.339415422197717</v>
-      </c>
-      <c r="D86" s="18">
-        <v>27.142382127443803</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C87" s="16">
-        <v>66.154272484139398</v>
-      </c>
-      <c r="D87" s="16">
-        <v>25.120537987887385</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88" s="18">
-        <v>65.820461760341956</v>
-      </c>
-      <c r="D88" s="18">
-        <v>26.558455818871963</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C89" s="16">
-        <v>66.370853349572769</v>
-      </c>
-      <c r="D89" s="16">
-        <v>26.685101217300009</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C90" s="18">
-        <v>67.224956089423543</v>
-      </c>
-      <c r="D90" s="18">
-        <v>27.319855749220391</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C91" s="16">
-        <v>67.695216418494198</v>
-      </c>
-      <c r="D91" s="16">
-        <v>26.807322011945178</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="C92" s="18">
-        <v>62.359019015080577</v>
-      </c>
-      <c r="D92" s="18">
-        <v>25.847414640807131</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C93" s="16">
-        <v>65.888300616659549</v>
-      </c>
-      <c r="D93" s="16">
-        <v>24.525961795385751</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="C94" s="18">
-        <v>61.632221849456677</v>
-      </c>
-      <c r="D94" s="18">
-        <v>21.41026259031204</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C95" s="16">
-        <v>60.371396146273831</v>
-      </c>
-      <c r="D95" s="16">
-        <v>26.343134995513708</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C96" s="18">
-        <v>65.266767419445614</v>
-      </c>
-      <c r="D96" s="18">
-        <v>25.694406274847641</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C97" s="16">
-        <v>64.288835007793452</v>
-      </c>
-      <c r="D97" s="16">
-        <v>24.240446364932858</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="C98" s="18">
-        <v>60.288239972645847</v>
-      </c>
-      <c r="D98" s="18">
-        <v>24.971029524823479</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C99" s="16">
-        <v>66.424720838837715</v>
-      </c>
-      <c r="D99" s="16">
-        <v>25.544374606870122</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C100" s="18">
-        <v>63.800582594961121</v>
-      </c>
-      <c r="D100" s="18">
-        <v>23.081054923675008</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C101" s="16">
-        <v>67.62153303982285</v>
-      </c>
-      <c r="D101" s="16">
-        <v>25.732457773325763</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C102" s="18">
-        <v>67.63597719181729</v>
-      </c>
-      <c r="D102" s="18">
-        <v>25.742651130961097</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C103" s="16">
-        <v>66.142458855821573</v>
-      </c>
-      <c r="D103" s="16">
-        <v>24.892942870392059</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C104" s="18">
-        <v>62.212931653895922</v>
-      </c>
-      <c r="D104" s="18">
-        <v>27.670433054059803</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C105" s="16">
-        <v>60.341748677647352</v>
-      </c>
-      <c r="D105" s="16">
-        <v>23.09100805473139</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C106" s="18">
-        <v>60.748499601592883</v>
-      </c>
-      <c r="D106" s="18">
-        <v>24.919543466969376</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="C107" s="16">
-        <v>61.018413369065314</v>
-      </c>
-      <c r="D107" s="16">
-        <v>28.030117107081921</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C108" s="18">
-        <v>61.242496775061909</v>
-      </c>
-      <c r="D108" s="18">
-        <v>21.470167372708467</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C109" s="16">
-        <v>61.236971500514962</v>
-      </c>
-      <c r="D109" s="16">
-        <v>21.434059560880922</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C110" s="18">
-        <v>61.478601896463452</v>
-      </c>
-      <c r="D110" s="18">
-        <v>21.982081571068253</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C111" s="16">
-        <v>60.802238889919344</v>
-      </c>
-      <c r="D111" s="16">
-        <v>23.572103783905639</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C112" s="18">
-        <v>59.959737999515042</v>
-      </c>
-      <c r="D112" s="18">
-        <v>21.156388397621051</v>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>e3d</v>
+      </c>
+      <c r="L10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="4"/>
+        <v>e3d</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>237</v>
+      </c>
+      <c r="U10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0001</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>e 1.5 deg no OS.d9d</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.d9d</v>
+      </c>
+      <c r="I11" t="str">
+        <f>I6</f>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O11">
+        <f>O6</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11" t="s">
+        <v>238</v>
+      </c>
+      <c r="U11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <f t="shared" ref="A12:A55" si="5">A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0002</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>d 1.5 deg OS.d9d</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.d9d</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12:I55" si="6">I7</f>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O55" si="7">O7</f>
+        <v>2</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12" t="s">
+        <v>239</v>
+      </c>
+      <c r="U12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0003</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>c 2 deg (67%).d9d</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).d9d</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>240</v>
+      </c>
+      <c r="U13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0004</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>b 2 deg (50%).d9d</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).d9d</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>242</v>
+      </c>
+      <c r="U14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s3p3v3_d~0005</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>a 3 deg.d9d</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.d9d</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>d9d</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="4"/>
+        <v>d9d</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>241</v>
+      </c>
+      <c r="U15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0001</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>e 1.5 deg no OS.b2w</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.b2w</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0002</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>d 1.5 deg OS.b2w</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.b2w</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0003</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>c 2 deg (67%).b2w</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).b2w</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0004</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>b 2 deg (50%).b2w</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).b2w</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w~0005</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>a 3 deg.b2w</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.b2w</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>b2w</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="4"/>
+        <v>b2w</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0001</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>e 1.5 deg no OS.a2w2d</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.a2w2d</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0002</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>d 1.5 deg OS.a2w2d</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.a2w2d</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0003</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>c 2 deg (67%).a2w2d</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).a2w2d</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0004</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>b 2 deg (50%).a2w2d</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).a2w2d</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_s2_w_p2_d~0005</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>a 3 deg.a2w2d</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.a2w2d</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>a2w2d</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="4"/>
+        <v>a2w2d</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0001</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>e 1.5 deg no OS.hTS12c</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.hTS12c</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0002</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" ref="C27:C40" si="8">H27</f>
+        <v>d 1.5 deg OS.hTS12c</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.hTS12c</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0003</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="8"/>
+        <v>c 2 deg (67%).hTS12c</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).hTS12c</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0004</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="8"/>
+        <v>b 2 deg (50%).hTS12c</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).hTS12c</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts12_clu~0005</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="8"/>
+        <v>a 3 deg.hTS12c</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.hTS12c</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>hTS12c</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="4"/>
+        <v>hTS12c</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0001</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="8"/>
+        <v>e 1.5 deg no OS.gTS24c</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.gTS24c</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0002</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="8"/>
+        <v>d 1.5 deg OS.gTS24c</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.gTS24c</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0003</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="8"/>
+        <v>c 2 deg (67%).gTS24c</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).gTS24c</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0004</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="8"/>
+        <v>b 2 deg (50%).gTS24c</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).gTS24c</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts24_clu~0005</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="8"/>
+        <v>a 3 deg.gTS24c</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.gTS24c</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>gTS24c</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="4"/>
+        <v>gTS24c</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts48_clu~0001</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="8"/>
+        <v>e 1.5 deg no OS.fTS48c</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.fTS48c</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>vstacks_ts48_clu~0002</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="8"/>
+        <v>d 1.5 deg OS.fTS48c</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.fTS48c</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" ref="B38:B55" si="9">"vstacks_"&amp;VLOOKUP(A38,$S$6:$T$18,2,FALSE)&amp;"~"&amp;TEXT(O38,"0000")</f>
+        <v>vstacks_ts48_clu~0003</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="8"/>
+        <v>c 2 deg (67%).fTS48c</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).fTS48c</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts48_clu~0004</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="8"/>
+        <v>b 2 deg (50%).fTS48c</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).fTS48c</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts48_clu~0005</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="8"/>
+        <v>a 3 deg.fTS48c</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.fTS48c</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>fTS48c</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="4"/>
+        <v>fTS48c</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0001</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ref="C41:C55" si="10">H41</f>
+        <v>e 1.5 deg no OS.c15d</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.c15d</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0002</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="10"/>
+        <v>d 1.5 deg OS.c15d</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.c15d</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0003</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="10"/>
+        <v>c 2 deg (67%).c15d</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).c15d</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0004</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="10"/>
+        <v>b 2 deg (50%).c15d</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).c15d</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_s5p5v5_d~0005</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="10"/>
+        <v>a 3 deg.c15d</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.c15d</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>c15d</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="4"/>
+        <v>c15d</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0001</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="10"/>
+        <v>e 1.5 deg no OS.iTS12</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.iTS12</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0002</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="10"/>
+        <v>d 1.5 deg OS.iTS12</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.iTS12</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0003</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="10"/>
+        <v>c 2 deg (67%).iTS12</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).iTS12</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0004</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="10"/>
+        <v>b 2 deg (50%).iTS12</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).iTS12</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_12~0005</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="10"/>
+        <v>a 3 deg.iTS12</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.iTS12</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>iTS12</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="4"/>
+        <v>iTS12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0001</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="10"/>
+        <v>e 1.5 deg no OS.jAnn</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>e 1.5 deg no OS.jAnn</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="6"/>
+        <v>e 1.5 deg no OS</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0002</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="10"/>
+        <v>d 1.5 deg OS.jAnn</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>d 1.5 deg OS.jAnn</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="6"/>
+        <v>d 1.5 deg OS</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0003</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="10"/>
+        <v>c 2 deg (67%).jAnn</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>c 2 deg (67%).jAnn</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="6"/>
+        <v>c 2 deg (67%)</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0004</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="10"/>
+        <v>b 2 deg (50%).jAnn</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>b 2 deg (50%).jAnn</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="6"/>
+        <v>b 2 deg (50%)</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="9"/>
+        <v>vstacks_ts_annual~0005</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="10"/>
+        <v>a 3 deg.jAnn</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>a 3 deg.jAnn</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="6"/>
+        <v>a 3 deg</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
+        <v>jAnn</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="4"/>
+        <v>jAnn</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D59:D68">
+    <sortCondition ref="D59:D68"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3115,7 +3830,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3131,32 +3846,32 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
       </c>
       <c r="C5" t="str">
         <f>LEFT(B5,2)</f>
@@ -3165,10 +3880,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:C10" si="0">LEFT(B6,2)</f>
@@ -3177,10 +3892,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3189,10 +3904,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3201,10 +3916,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3213,10 +3928,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3389,7 +4104,7 @@
         <v>Bio Power</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3401,7 +4116,7 @@
         <v>Solar Util</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3437,7 +4152,7 @@
         <v>Geothermal P</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3449,7 +4164,7 @@
         <v>Hydro Dam</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3461,7 +4176,7 @@
         <v>Hydro RoR</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3473,7 +4188,7 @@
         <v>Nuclear P</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3485,7 +4200,7 @@
         <v>Nuclear SMR</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3533,7 +4248,7 @@
         <v>Demand</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3545,7 +4260,7 @@
         <v>Transformers Dn</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3557,7 +4272,7 @@
         <v>Transformers Up</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3569,7 +4284,7 @@
         <v>Grid-220V</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3581,7 +4296,7 @@
         <v>Grid-400V</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3593,7 +4308,7 @@
         <v>Grid-380V</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3605,7 +4320,7 @@
         <v>Grid-225V</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3617,7 +4332,7 @@
         <v>Grid-330V</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3629,7 +4344,7 @@
         <v>Grid-275V</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3641,7 +4356,7 @@
         <v>Grid-420V</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3653,7 +4368,7 @@
         <v>Grid-300V</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3665,7 +4380,7 @@
         <v>Grid-500V</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3677,7 +4392,7 @@
         <v>Grid-750V</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3689,7 +4404,7 @@
         <v>Grid-450V</v>
       </c>
       <c r="D37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3701,7 +4416,7 @@
         <v>Grid-515V</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3713,7 +4428,7 @@
         <v>Grid-525V</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3725,7 +4440,7 @@
         <v>Grid-320V</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3737,7 +4452,7 @@
         <v>Grid-150V</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3749,7 +4464,7 @@
         <v>Grid-270V</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3761,7 +4476,7 @@
         <v>Grid-350V</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3773,7 +4488,7 @@
         <v>Grid-250V</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3785,7 +4500,7 @@
         <v>Grid-200V</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3797,7 +4512,7 @@
         <v>Grid-236V</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3809,7 +4524,7 @@
         <v>Grid-600V</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3821,7 +4536,7 @@
         <v>Aggregators</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3833,7 +4548,7 @@
         <v>DUMMY_IMP</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3841,13 +4556,13 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3855,13 +4570,13 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" t="s">
         <v>139</v>
-      </c>
-      <c r="F51" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3869,13 +4584,13 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3883,13 +4598,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4108,10 +4823,10 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -4122,10 +4837,10 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6">
         <v>-1E-3</v>
@@ -4136,10 +4851,10 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7">
         <v>-1000</v>
@@ -4151,7 +4866,1178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11801D39-283E-4A7B-B8E3-C562A4EFC727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48072832-46A7-4932-BCF9-2C695A24B3C5}">
+  <dimension ref="A1:H112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.05" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1">
+      <c r="B9" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B10" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="16">
+        <v>69.843525998101626</v>
+      </c>
+      <c r="D11" s="16">
+        <v>27.227319700000024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="18">
+        <v>61.488324197216357</v>
+      </c>
+      <c r="D12" s="18">
+        <v>22.012815000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="16">
+        <v>61.465563317255167</v>
+      </c>
+      <c r="D13" s="16">
+        <v>23.979322317709929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="18">
+        <v>61.44566639721009</v>
+      </c>
+      <c r="D14" s="18">
+        <v>23.946865200000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="16">
+        <v>61.421424897206641</v>
+      </c>
+      <c r="D15" s="16">
+        <v>23.499009699999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="18">
+        <v>61.408480197204696</v>
+      </c>
+      <c r="D16" s="18">
+        <v>23.515730900000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="16">
+        <v>61.404991497204207</v>
+      </c>
+      <c r="D17" s="16">
+        <v>23.760543300000009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="18">
+        <v>61.398400497203255</v>
+      </c>
+      <c r="D18" s="18">
+        <v>23.799347900000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="16">
+        <v>61.392785371072421</v>
+      </c>
+      <c r="D19" s="16">
+        <v>23.582689859477441</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="18">
+        <v>61.20708349717497</v>
+      </c>
+      <c r="D20" s="18">
+        <v>21.585538499999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="16">
+        <v>61.189199874706375</v>
+      </c>
+      <c r="D21" s="16">
+        <v>21.656427549366459</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="18">
+        <v>66.404690497789176</v>
+      </c>
+      <c r="D22" s="18">
+        <v>27.324774799999982</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="16">
+        <v>61.171830097808417</v>
+      </c>
+      <c r="D23" s="16">
+        <v>22.252441726174322</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="18">
+        <v>61.159111792914274</v>
+      </c>
+      <c r="D24" s="18">
+        <v>22.444272478526621</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="16">
+        <v>61.157575156992337</v>
+      </c>
+      <c r="D25" s="16">
+        <v>21.752837468316919</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="18">
+        <v>60.774230997108788</v>
+      </c>
+      <c r="D26" s="18">
+        <v>24.244614500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="16">
+        <v>60.762294797106833</v>
+      </c>
+      <c r="D27" s="16">
+        <v>24.660069899999979</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="18">
+        <v>60.756470197105941</v>
+      </c>
+      <c r="D28" s="18">
+        <v>24.73821199999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="16">
+        <v>60.754338001297938</v>
+      </c>
+      <c r="D29" s="16">
+        <v>24.995489714536639</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="18">
+        <v>60.749346697104862</v>
+      </c>
+      <c r="D30" s="18">
+        <v>24.855618599999968</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="16">
+        <v>66.269614497776089</v>
+      </c>
+      <c r="D31" s="16">
+        <v>25.388823100000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="18">
+        <v>60.609230075670197</v>
+      </c>
+      <c r="D32" s="18">
+        <v>24.905908145454468</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="16">
+        <v>60.473892075007988</v>
+      </c>
+      <c r="D33" s="16">
+        <v>25.976783900340749</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" s="18">
+        <v>60.433745089494508</v>
+      </c>
+      <c r="D34" s="18">
+        <v>25.724083948158089</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="16">
+        <v>60.432084238999913</v>
+      </c>
+      <c r="D35" s="16">
+        <v>25.788083895390887</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="18">
+        <v>60.431311797054015</v>
+      </c>
+      <c r="D36" s="18">
+        <v>25.6122294</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="16">
+        <v>60.429052597053534</v>
+      </c>
+      <c r="D37" s="16">
+        <v>25.584932899999984</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="18">
+        <v>60.237502523412218</v>
+      </c>
+      <c r="D38" s="18">
+        <v>24.691393737439721</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="16">
+        <v>60.218214052079297</v>
+      </c>
+      <c r="D39" s="16">
+        <v>24.637755027682807</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="18">
+        <v>60.166297497010255</v>
+      </c>
+      <c r="D40" s="18">
+        <v>24.272542600000008</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="16">
+        <v>64.944338697641811</v>
+      </c>
+      <c r="D41" s="16">
+        <v>25.743433100000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="18">
+        <v>64.85428834769867</v>
+      </c>
+      <c r="D42" s="18">
+        <v>26.012085199502568</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="16">
+        <v>64.579610097749793</v>
+      </c>
+      <c r="D43" s="16">
+        <v>26.707926350120164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C44" s="18">
+        <v>64.117301047673806</v>
+      </c>
+      <c r="D44" s="18">
+        <v>25.46442159953067</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="16">
+        <v>62.28469969732712</v>
+      </c>
+      <c r="D45" s="16">
+        <v>21.429690900000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="18">
+        <v>62.255167814464272</v>
+      </c>
+      <c r="D46" s="18">
+        <v>21.33869051214505</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="16">
+        <v>64.591152966695688</v>
+      </c>
+      <c r="D47" s="16">
+        <v>28.415009033256279</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="18">
+        <v>63.806616759966992</v>
+      </c>
+      <c r="D48" s="18">
+        <v>25.295408065265249</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="16">
+        <v>62.482253770582481</v>
+      </c>
+      <c r="D49" s="16">
+        <v>21.651570322482726</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C50" s="18">
+        <v>66.749987985712451</v>
+      </c>
+      <c r="D50" s="18">
+        <v>27.287359401110027</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" s="16">
+        <v>62.785772387497943</v>
+      </c>
+      <c r="D51" s="16">
+        <v>22.713906519685811</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C52" s="18">
+        <v>60.203747714738398</v>
+      </c>
+      <c r="D52" s="18">
+        <v>24.551645073611169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" s="16">
+        <v>61.152109048186283</v>
+      </c>
+      <c r="D53" s="16">
+        <v>21.626137663639849</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" s="18">
+        <v>63.187457597668661</v>
+      </c>
+      <c r="D54" s="18">
+        <v>27.520665591725081</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="16">
+        <v>62.117609809187563</v>
+      </c>
+      <c r="D55" s="16">
+        <v>21.670493933529031</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="18">
+        <v>64.422222443925165</v>
+      </c>
+      <c r="D56" s="18">
+        <v>24.561833224065435</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="16">
+        <v>63.519662704443597</v>
+      </c>
+      <c r="D57" s="16">
+        <v>24.515231021256493</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="18">
+        <v>63.032100943884593</v>
+      </c>
+      <c r="D58" s="18">
+        <v>24.169991721779478</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" s="16">
+        <v>63.972589823678064</v>
+      </c>
+      <c r="D59" s="16">
+        <v>24.875245620666298</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" s="18">
+        <v>60.598904579127549</v>
+      </c>
+      <c r="D60" s="18">
+        <v>26.906494831404384</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" s="16">
+        <v>64.843785823322065</v>
+      </c>
+      <c r="D61" s="16">
+        <v>26.071330290894803</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" s="18">
+        <v>64.844955298397394</v>
+      </c>
+      <c r="D62" s="18">
+        <v>26.035474759522693</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" s="16">
+        <v>64.917009452801494</v>
+      </c>
+      <c r="D63" s="16">
+        <v>25.73688586317235</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" s="18">
+        <v>63.052766840597883</v>
+      </c>
+      <c r="D64" s="18">
+        <v>21.851244512583811</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" s="16">
+        <v>64.120961402535016</v>
+      </c>
+      <c r="D65" s="16">
+        <v>25.415373262271785</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C66" s="18">
+        <v>60.523445255301482</v>
+      </c>
+      <c r="D66" s="18">
+        <v>22.499572287108272</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="16">
+        <v>60.493836509212372</v>
+      </c>
+      <c r="D67" s="16">
+        <v>24.944393682067449</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" s="18">
+        <v>62.279409088240108</v>
+      </c>
+      <c r="D68" s="18">
+        <v>25.143755818611847</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" s="16">
+        <v>65.928162840799871</v>
+      </c>
+      <c r="D69" s="16">
+        <v>24.71312627886784</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="18">
+        <v>61.89269924055553</v>
+      </c>
+      <c r="D70" s="18">
+        <v>25.127938450149252</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="16">
+        <v>64.105380759118887</v>
+      </c>
+      <c r="D71" s="16">
+        <v>27.21250396173205</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="18">
+        <v>65.771848585608694</v>
+      </c>
+      <c r="D72" s="18">
+        <v>24.163152683613475</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="16">
+        <v>60.274101172418348</v>
+      </c>
+      <c r="D73" s="16">
+        <v>24.275411199229161</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C74" s="18">
+        <v>61.150985477315963</v>
+      </c>
+      <c r="D74" s="18">
+        <v>22.585877594749888</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="16">
+        <v>60.377636227284512</v>
+      </c>
+      <c r="D75" s="16">
+        <v>25.367309680105411</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C76" s="18">
+        <v>60.205036905524295</v>
+      </c>
+      <c r="D76" s="18">
+        <v>24.550466328157121</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C77" s="16">
+        <v>66.269024003294803</v>
+      </c>
+      <c r="D77" s="16">
+        <v>25.346795336270134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C78" s="18">
+        <v>60.260171552023849</v>
+      </c>
+      <c r="D78" s="18">
+        <v>25.119806778055288</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" s="16">
+        <v>67.527873758547642</v>
+      </c>
+      <c r="D79" s="16">
+        <v>24.917814052232885</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" s="18">
+        <v>61.496644806911767</v>
+      </c>
+      <c r="D80" s="18">
+        <v>23.976544020319459</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C81" s="16">
+        <v>60.021295632317148</v>
+      </c>
+      <c r="D81" s="16">
+        <v>23.90859971749779</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C82" s="18">
+        <v>61.728994167158113</v>
+      </c>
+      <c r="D82" s="18">
+        <v>27.36608653991372</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" s="16">
+        <v>62.292711199264261</v>
+      </c>
+      <c r="D83" s="16">
+        <v>21.375880124834342</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" s="18">
+        <v>60.838283473246257</v>
+      </c>
+      <c r="D84" s="18">
+        <v>26.595449017407411</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" s="16">
+        <v>68.65549408483291</v>
+      </c>
+      <c r="D85" s="16">
+        <v>27.583003398581042</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="18">
+        <v>66.339415422197717</v>
+      </c>
+      <c r="D86" s="18">
+        <v>27.142382127443803</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" s="16">
+        <v>66.154272484139398</v>
+      </c>
+      <c r="D87" s="16">
+        <v>25.120537987887385</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" s="18">
+        <v>65.820461760341956</v>
+      </c>
+      <c r="D88" s="18">
+        <v>26.558455818871963</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" s="16">
+        <v>66.370853349572769</v>
+      </c>
+      <c r="D89" s="16">
+        <v>26.685101217300009</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" s="18">
+        <v>67.224956089423543</v>
+      </c>
+      <c r="D90" s="18">
+        <v>27.319855749220391</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" s="16">
+        <v>67.695216418494198</v>
+      </c>
+      <c r="D91" s="16">
+        <v>26.807322011945178</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" s="18">
+        <v>62.359019015080577</v>
+      </c>
+      <c r="D92" s="18">
+        <v>25.847414640807131</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" s="16">
+        <v>65.888300616659549</v>
+      </c>
+      <c r="D93" s="16">
+        <v>24.525961795385751</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" s="18">
+        <v>61.632221849456677</v>
+      </c>
+      <c r="D94" s="18">
+        <v>21.41026259031204</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="16">
+        <v>60.371396146273831</v>
+      </c>
+      <c r="D95" s="16">
+        <v>26.343134995513708</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C96" s="18">
+        <v>65.266767419445614</v>
+      </c>
+      <c r="D96" s="18">
+        <v>25.694406274847641</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="16">
+        <v>64.288835007793452</v>
+      </c>
+      <c r="D97" s="16">
+        <v>24.240446364932858</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C98" s="18">
+        <v>60.288239972645847</v>
+      </c>
+      <c r="D98" s="18">
+        <v>24.971029524823479</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C99" s="16">
+        <v>66.424720838837715</v>
+      </c>
+      <c r="D99" s="16">
+        <v>25.544374606870122</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C100" s="18">
+        <v>63.800582594961121</v>
+      </c>
+      <c r="D100" s="18">
+        <v>23.081054923675008</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" s="16">
+        <v>67.62153303982285</v>
+      </c>
+      <c r="D101" s="16">
+        <v>25.732457773325763</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C102" s="18">
+        <v>67.63597719181729</v>
+      </c>
+      <c r="D102" s="18">
+        <v>25.742651130961097</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" s="16">
+        <v>66.142458855821573</v>
+      </c>
+      <c r="D103" s="16">
+        <v>24.892942870392059</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C104" s="18">
+        <v>62.212931653895922</v>
+      </c>
+      <c r="D104" s="18">
+        <v>27.670433054059803</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C105" s="16">
+        <v>60.341748677647352</v>
+      </c>
+      <c r="D105" s="16">
+        <v>23.09100805473139</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="18">
+        <v>60.748499601592883</v>
+      </c>
+      <c r="D106" s="18">
+        <v>24.919543466969376</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C107" s="16">
+        <v>61.018413369065314</v>
+      </c>
+      <c r="D107" s="16">
+        <v>28.030117107081921</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C108" s="18">
+        <v>61.242496775061909</v>
+      </c>
+      <c r="D108" s="18">
+        <v>21.470167372708467</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C109" s="16">
+        <v>61.236971500514962</v>
+      </c>
+      <c r="D109" s="16">
+        <v>21.434059560880922</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C110" s="18">
+        <v>61.478601896463452</v>
+      </c>
+      <c r="D110" s="18">
+        <v>21.982081571068253</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" s="16">
+        <v>60.802238889919344</v>
+      </c>
+      <c r="D111" s="16">
+        <v>23.572103783905639</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="18">
+        <v>59.959737999515042</v>
+      </c>
+      <c r="D112" s="18">
+        <v>21.156388397621051</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F9FBDF-7A1B-472C-A6B0-A3ABC3BBE7B3}">
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4166,7 +6052,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.05" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4194,1124 +6080,1124 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5320,1862 +7206,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:U55"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="str">
-        <f>"sg_"&amp;I2</f>
-        <v>sg_ngfs</v>
-      </c>
-      <c r="J5" t="str">
-        <f>"sg_"&amp;J2</f>
-        <v>sg_timeslice</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" ref="B6:B37" si="0">"vstacks_"&amp;VLOOKUP(A6,$S$6:$T$18,2,FALSE)&amp;"~"&amp;TEXT(O6,"0000")</f>
-        <v>vstacks_s1p1v1_d~0001</v>
-      </c>
-      <c r="C6" t="str">
-        <f>H6</f>
-        <v>Postponed Transition.e3d</v>
-      </c>
-      <c r="H6" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,I6:J6)</f>
-        <v>Postponed Transition.e3d</v>
-      </c>
-      <c r="I6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6" t="str">
-        <f>Q6</f>
-        <v>e3d</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="str">
-        <f>VLOOKUP(A6,$S$6:$U$17,3,FALSE)</f>
-        <v>e3d</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>240</v>
-      </c>
-      <c r="U6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s1p1v1_d~0002</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C26" si="1">H7</f>
-        <v>Target Net Zero 2050.e3d</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ref="H7:H55" si="2">_xlfn.TEXTJOIN(".",TRUE,I7:J7)</f>
-        <v>Target Net Zero 2050.e3d</v>
-      </c>
-      <c r="I7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:J55" si="3">Q7</f>
-        <v>e3d</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" ref="Q7:Q55" si="4">VLOOKUP(A7,$S$6:$U$17,3,FALSE)</f>
-        <v>e3d</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7" t="s">
-        <v>241</v>
-      </c>
-      <c r="U7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s1p1v1_d~0003</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Declared NDCs.e3d</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.e3d</v>
-      </c>
-      <c r="I8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="3"/>
-        <v>e3d</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="4"/>
-        <v>e3d</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8" t="s">
-        <v>242</v>
-      </c>
-      <c r="U8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s1p1v1_d~0004</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>Limited to 2 deg.e3d</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.e3d</v>
-      </c>
-      <c r="I9" t="s">
-        <v>236</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="3"/>
-        <v>e3d</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="4"/>
-        <v>e3d</v>
-      </c>
-      <c r="S9">
-        <v>4</v>
-      </c>
-      <c r="T9" t="s">
-        <v>243</v>
-      </c>
-      <c r="U9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s1p1v1_d~0005</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>Current Policies.e3d</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.e3d</v>
-      </c>
-      <c r="I10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="3"/>
-        <v>e3d</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="4"/>
-        <v>e3d</v>
-      </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>244</v>
-      </c>
-      <c r="U10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <f>A6+1</f>
-        <v>2</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s3p3v3_d~0001</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>Postponed Transition.d9d</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.d9d</v>
-      </c>
-      <c r="I11" t="str">
-        <f>I6</f>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="3"/>
-        <v>d9d</v>
-      </c>
-      <c r="O11">
-        <f>O6</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="4"/>
-        <v>d9d</v>
-      </c>
-      <c r="S11">
-        <v>6</v>
-      </c>
-      <c r="T11" t="s">
-        <v>245</v>
-      </c>
-      <c r="U11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
-        <f t="shared" ref="A12:A55" si="5">A7+1</f>
-        <v>2</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s3p3v3_d~0002</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>Target Net Zero 2050.d9d</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.d9d</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" ref="I12:I55" si="6">I7</f>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="3"/>
-        <v>d9d</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:O55" si="7">O7</f>
-        <v>2</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="4"/>
-        <v>d9d</v>
-      </c>
-      <c r="S12">
-        <v>7</v>
-      </c>
-      <c r="T12" t="s">
-        <v>246</v>
-      </c>
-      <c r="U12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s3p3v3_d~0003</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>Declared NDCs.d9d</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.d9d</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="3"/>
-        <v>d9d</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="4"/>
-        <v>d9d</v>
-      </c>
-      <c r="S13">
-        <v>8</v>
-      </c>
-      <c r="T13" t="s">
-        <v>247</v>
-      </c>
-      <c r="U13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s3p3v3_d~0004</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>Limited to 2 deg.d9d</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.d9d</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="3"/>
-        <v>d9d</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="4"/>
-        <v>d9d</v>
-      </c>
-      <c r="S14">
-        <v>9</v>
-      </c>
-      <c r="T14" t="s">
-        <v>249</v>
-      </c>
-      <c r="U14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s3p3v3_d~0005</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>Current Policies.d9d</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.d9d</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="3"/>
-        <v>d9d</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="4"/>
-        <v>d9d</v>
-      </c>
-      <c r="S15">
-        <v>10</v>
-      </c>
-      <c r="T15" t="s">
-        <v>248</v>
-      </c>
-      <c r="U15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w~0001</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>Postponed Transition.b2w</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.b2w</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="3"/>
-        <v>b2w</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="4"/>
-        <v>b2w</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w~0002</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>Target Net Zero 2050.b2w</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.b2w</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="3"/>
-        <v>b2w</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="4"/>
-        <v>b2w</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w~0003</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>Declared NDCs.b2w</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.b2w</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v>b2w</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="4"/>
-        <v>b2w</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w~0004</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>Limited to 2 deg.b2w</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.b2w</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v>b2w</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="4"/>
-        <v>b2w</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w~0005</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>Current Policies.b2w</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.b2w</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v>b2w</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="4"/>
-        <v>b2w</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w_p2_d~0001</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>Postponed Transition.a2w2d</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.a2w2d</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v>a2w2d</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="4"/>
-        <v>a2w2d</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w_p2_d~0002</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>Target Net Zero 2050.a2w2d</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.a2w2d</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>a2w2d</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="4"/>
-        <v>a2w2d</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w_p2_d~0003</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>Declared NDCs.a2w2d</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.a2w2d</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v>a2w2d</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="4"/>
-        <v>a2w2d</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w_p2_d~0004</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>Limited to 2 deg.a2w2d</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.a2w2d</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>a2w2d</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="4"/>
-        <v>a2w2d</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_s2_w_p2_d~0005</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>Current Policies.a2w2d</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.a2w2d</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>a2w2d</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="4"/>
-        <v>a2w2d</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts12_clu~0001</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>Postponed Transition.hTS12c</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.hTS12c</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>hTS12c</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="4"/>
-        <v>hTS12c</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts12_clu~0002</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" ref="C27:C40" si="8">H27</f>
-        <v>Target Net Zero 2050.hTS12c</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.hTS12c</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>hTS12c</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="4"/>
-        <v>hTS12c</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts12_clu~0003</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="8"/>
-        <v>Declared NDCs.hTS12c</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.hTS12c</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>hTS12c</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="4"/>
-        <v>hTS12c</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts12_clu~0004</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="8"/>
-        <v>Limited to 2 deg.hTS12c</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.hTS12c</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>hTS12c</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="4"/>
-        <v>hTS12c</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts12_clu~0005</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="8"/>
-        <v>Current Policies.hTS12c</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.hTS12c</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>hTS12c</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="4"/>
-        <v>hTS12c</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts24_clu~0001</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="8"/>
-        <v>Postponed Transition.gTS24c</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.gTS24c</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>gTS24c</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="4"/>
-        <v>gTS24c</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts24_clu~0002</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="8"/>
-        <v>Target Net Zero 2050.gTS24c</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.gTS24c</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v>gTS24c</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="4"/>
-        <v>gTS24c</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts24_clu~0003</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="8"/>
-        <v>Declared NDCs.gTS24c</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.gTS24c</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v>gTS24c</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="4"/>
-        <v>gTS24c</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts24_clu~0004</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="8"/>
-        <v>Limited to 2 deg.gTS24c</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.gTS24c</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v>gTS24c</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="4"/>
-        <v>gTS24c</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts24_clu~0005</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="8"/>
-        <v>Current Policies.gTS24c</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.gTS24c</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v>gTS24c</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="4"/>
-        <v>gTS24c</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts48_clu~0001</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="8"/>
-        <v>Postponed Transition.fTS48c</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.fTS48c</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="3"/>
-        <v>fTS48c</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="4"/>
-        <v>fTS48c</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>vstacks_ts48_clu~0002</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="8"/>
-        <v>Target Net Zero 2050.fTS48c</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.fTS48c</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="3"/>
-        <v>fTS48c</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="4"/>
-        <v>fTS48c</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" ref="B38:B55" si="9">"vstacks_"&amp;VLOOKUP(A38,$S$6:$T$18,2,FALSE)&amp;"~"&amp;TEXT(O38,"0000")</f>
-        <v>vstacks_ts48_clu~0003</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="8"/>
-        <v>Declared NDCs.fTS48c</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.fTS48c</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="3"/>
-        <v>fTS48c</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="4"/>
-        <v>fTS48c</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts48_clu~0004</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="8"/>
-        <v>Limited to 2 deg.fTS48c</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.fTS48c</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="3"/>
-        <v>fTS48c</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="4"/>
-        <v>fTS48c</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts48_clu~0005</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="8"/>
-        <v>Current Policies.fTS48c</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.fTS48c</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="3"/>
-        <v>fTS48c</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="4"/>
-        <v>fTS48c</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_s5p5v5_d~0001</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" ref="C41:C55" si="10">H41</f>
-        <v>Postponed Transition.c15d</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.c15d</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="3"/>
-        <v>c15d</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="4"/>
-        <v>c15d</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_s5p5v5_d~0002</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="10"/>
-        <v>Target Net Zero 2050.c15d</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.c15d</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="3"/>
-        <v>c15d</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="4"/>
-        <v>c15d</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_s5p5v5_d~0003</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="10"/>
-        <v>Declared NDCs.c15d</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.c15d</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="3"/>
-        <v>c15d</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="4"/>
-        <v>c15d</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_s5p5v5_d~0004</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="10"/>
-        <v>Limited to 2 deg.c15d</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.c15d</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="3"/>
-        <v>c15d</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="4"/>
-        <v>c15d</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_s5p5v5_d~0005</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="10"/>
-        <v>Current Policies.c15d</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.c15d</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="3"/>
-        <v>c15d</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="4"/>
-        <v>c15d</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_12~0001</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="10"/>
-        <v>Postponed Transition.iTS12</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.iTS12</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="3"/>
-        <v>iTS12</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="4"/>
-        <v>iTS12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_12~0002</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="10"/>
-        <v>Target Net Zero 2050.iTS12</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.iTS12</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="3"/>
-        <v>iTS12</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="4"/>
-        <v>iTS12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_12~0003</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="10"/>
-        <v>Declared NDCs.iTS12</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.iTS12</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="3"/>
-        <v>iTS12</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="4"/>
-        <v>iTS12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_12~0004</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="10"/>
-        <v>Limited to 2 deg.iTS12</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.iTS12</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="3"/>
-        <v>iTS12</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q49" t="str">
-        <f t="shared" si="4"/>
-        <v>iTS12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_12~0005</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="10"/>
-        <v>Current Policies.iTS12</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.iTS12</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="3"/>
-        <v>iTS12</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="4"/>
-        <v>iTS12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_annual~0001</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="10"/>
-        <v>Postponed Transition.jAnn</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="2"/>
-        <v>Postponed Transition.jAnn</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="6"/>
-        <v>Postponed Transition</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="3"/>
-        <v>jAnn</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" si="4"/>
-        <v>jAnn</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_annual~0002</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="10"/>
-        <v>Target Net Zero 2050.jAnn</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="2"/>
-        <v>Target Net Zero 2050.jAnn</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="6"/>
-        <v>Target Net Zero 2050</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="3"/>
-        <v>jAnn</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="4"/>
-        <v>jAnn</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_annual~0003</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="10"/>
-        <v>Declared NDCs.jAnn</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="2"/>
-        <v>Declared NDCs.jAnn</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="6"/>
-        <v>Declared NDCs</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="3"/>
-        <v>jAnn</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="4"/>
-        <v>jAnn</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_annual~0004</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="10"/>
-        <v>Limited to 2 deg.jAnn</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="2"/>
-        <v>Limited to 2 deg.jAnn</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="6"/>
-        <v>Limited to 2 deg</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="3"/>
-        <v>jAnn</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Q54" t="str">
-        <f t="shared" si="4"/>
-        <v>jAnn</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="9"/>
-        <v>vstacks_ts_annual~0005</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="10"/>
-        <v>Current Policies.jAnn</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="2"/>
-        <v>Current Policies.jAnn</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="6"/>
-        <v>Current Policies</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="3"/>
-        <v>jAnn</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="Q55" t="str">
-        <f t="shared" si="4"/>
-        <v>jAnn</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D59:D68">
-    <sortCondition ref="D59:D68"/>
-  </sortState>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7186,7 +7216,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -7284,7 +7314,7 @@
         <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
@@ -7301,7 +7331,7 @@
         <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -7322,10 +7352,10 @@
         <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="K5" t="s">
         <v>81</v>
@@ -7345,7 +7375,7 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2"/>
       <c r="H6" t="s">
@@ -7371,13 +7401,13 @@
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -7387,13 +7417,13 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -7446,13 +7476,13 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s">
         <v>142</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>143</v>
-      </c>
-      <c r="N11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -7616,7 +7646,7 @@
   <sheetData>
     <row r="3" spans="1:19" ht="17.25" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickTop="1" thickBot="1">
@@ -7672,10 +7702,10 @@
         <v>107</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7691,10 +7721,10 @@
         <v>Elec-220V,Elec-400V,Elec-380V,Elec-225V,Elec-330V,Elec-275V,Elec-420V,Elec-300V,Elec-500V,Elec-750V,Elec-450V,Elec-515V,Elec-525V,Elec-320V,Elec-150V,Elec-270V,Elec-350V,Elec-250V,Elec-200V,Elec-236V,Elec-600V,Solar elec,Wind elec,fossil,renewable,bioenergy,hydrogen,nuclear,ELC,buildings,industry,transport,EVs</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S5">
         <v>-1</v>
@@ -7702,7 +7732,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,PSet_MAP!$A$3:$A$49)</f>
@@ -7713,10 +7743,10 @@
         <v>Elec-220V,Elec-400V,Elec-380V,Elec-225V,Elec-330V,Elec-275V,Elec-420V,Elec-300V,Elec-500V,Elec-750V,Elec-450V,Elec-515V,Elec-525V,Elec-320V,Elec-150V,Elec-270V,Elec-350V,Elec-250V,Elec-200V,Elec-236V,Elec-600V,Solar elec,Wind elec,fossil,renewable,bioenergy,hydrogen,nuclear,ELC,buildings,industry,transport,EVs</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S6">
         <v>-1</v>
@@ -7824,7 +7854,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -7833,7 +7863,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -7860,7 +7890,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -7869,7 +7899,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -7878,7 +7908,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -7887,7 +7917,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -7896,7 +7926,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -7932,7 +7962,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -7941,7 +7971,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -7950,7 +7980,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -7959,7 +7989,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -7968,7 +7998,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -7977,7 +8007,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -7986,7 +8016,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -7995,7 +8025,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -8004,7 +8034,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -8013,7 +8043,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -8022,7 +8052,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -8031,7 +8061,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -8040,7 +8070,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -8049,7 +8079,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -8058,7 +8088,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -8067,7 +8097,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -8076,7 +8106,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -8085,7 +8115,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -8094,7 +8124,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -8103,7 +8133,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -8112,7 +8142,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -8121,7 +8151,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -8130,7 +8160,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -8139,7 +8169,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -8148,7 +8178,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -8157,7 +8187,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -8201,7 +8231,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
@@ -8210,7 +8240,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ref="B4:B35" si="0">A4</f>
@@ -8219,7 +8249,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -8228,7 +8258,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -8237,7 +8267,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -8246,7 +8276,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -8255,7 +8285,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -8264,7 +8294,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -8273,7 +8303,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -8282,7 +8312,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -8291,7 +8321,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -8300,7 +8330,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -8309,7 +8339,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -8318,7 +8348,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -8327,7 +8357,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -8336,7 +8366,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -8345,7 +8375,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -8354,7 +8384,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -8363,7 +8393,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -8372,7 +8402,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -8381,7 +8411,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -8390,7 +8420,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -8399,7 +8429,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -8408,7 +8438,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -8417,7 +8447,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -8426,7 +8456,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -8435,7 +8465,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -8444,7 +8474,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -8453,7 +8483,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -8462,7 +8492,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -8471,7 +8501,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -8480,7 +8510,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -8489,7 +8519,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
